--- a/FINAL MATERIAL FOR PUBLISHED PAPER/supplementary tables/Supplementary Table 3 - changes to APC list.xlsx
+++ b/FINAL MATERIAL FOR PUBLISHED PAPER/supplementary tables/Supplementary Table 3 - changes to APC list.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\PhD\CHAPTER 1 - AUSTRALIAN PLANT PHOTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\PhD\CHAPTER 1 - AUSTRALIAN PLANT PHOTOS\proofs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E16F058-F2B2-4E40-A5D3-0716D9312BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFBA425-4DE6-4D72-8044-D81BF7B34BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D0C1384D-5867-4B1A-910D-E66F39D2E058}"/>
   </bookViews>
   <sheets>
-    <sheet name="Omitted as native" sheetId="1" r:id="rId1"/>
-    <sheet name="Location(s) amended" sheetId="4" r:id="rId2"/>
-    <sheet name="References" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Omitted as native" sheetId="1" r:id="rId2"/>
+    <sheet name="Location(s) amended" sheetId="4" r:id="rId3"/>
+    <sheet name="References" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="208">
   <si>
     <t>Species</t>
   </si>
@@ -997,6 +998,24 @@
       </rPr>
       <t>: 1-74.</t>
     </r>
+  </si>
+  <si>
+    <t>New Phytologist Supporting Information</t>
+  </si>
+  <si>
+    <t>Photographs as an essential biodiversity resource: drivers of gaps in the vascular plant photographic record</t>
+  </si>
+  <si>
+    <t>Thomas Mesaglio, Hervé Sauquet, David Coleman, Elizabeth Wenk, William K Cornwell</t>
+  </si>
+  <si>
+    <t>Accepted 8 February 2023</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>All changes made to species included in the original Australian Plant Census data download. These changes cover both omissions (i.e., treatment of putative native species as non-native) and corrections of erroneous location data. Explanations are provided for all changes.</t>
   </si>
 </sst>
 </file>
@@ -1055,12 +1074,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1374,10 +1394,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B48C2B-655E-4E6E-835E-9754C3622CEF}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A780C583-603E-410E-9812-0DF8A0AFBA67}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -2062,7 +2127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185BAF5F-1681-4DBF-86A2-FFBC50DC5E04}">
   <dimension ref="A1:D47"/>
   <sheetViews>
@@ -2391,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891148A-8DCF-4B6D-A992-8CFF53C9189D}">
   <dimension ref="A1:A53"/>
   <sheetViews>
